--- a/Firmware501/Portmapping.xlsx
+++ b/Firmware501/Portmapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="13170" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Terminals" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tabelle3!$H$6:$I$24</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="147">
   <si>
     <t>DCF PULSE</t>
   </si>
@@ -458,6 +458,18 @@
   </si>
   <si>
     <t>C15</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>VBAT</t>
+  </si>
+  <si>
+    <t>B14</t>
   </si>
 </sst>
 </file>
@@ -811,6 +823,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -846,6 +875,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1001,7 +1047,7 @@
   <dimension ref="B3:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,8 +1430,8 @@
   </sheetPr>
   <dimension ref="B2:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,6 +1693,9 @@
       <c r="B10" t="s">
         <v>113</v>
       </c>
+      <c r="J10" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -1658,6 +1707,21 @@
       </c>
       <c r="E11" s="10" t="s">
         <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
@@ -1667,6 +1731,15 @@
         <v>50</v>
       </c>
       <c r="E12" s="37"/>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
@@ -1675,6 +1748,21 @@
         <v>2</v>
       </c>
       <c r="E13" s="37"/>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="41"/>
@@ -1714,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
